--- a/kittyserver/gametools/parseExcelTool/Excel/NpcFriends.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/NpcFriends.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="1">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
